--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2771609.086470749</v>
+        <v>2743787.032083477</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2345916.13826195</v>
+        <v>2345916.138261948</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.2420339516666</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852153</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>10.67483644959642</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>80.4024416162087</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>127.3906452839154</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>103.7556711095504</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,46 +829,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>159.8350691069749</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>14.77699516265575</v>
       </c>
       <c r="H5" t="n">
-        <v>78.94134566439499</v>
+        <v>19.60128384272333</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8439548922222</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>220.7944124161532</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +990,10 @@
         <v>137.0622202054666</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5187078288111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>79.71162794663287</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.69274760078366</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>152.0874305470977</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>199.0309045537394</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>66.82305460739596</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>156.7170857423812</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>122.3061535833753</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3777690076503</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>241.0934821937306</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>126.0887386816668</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>55.69641740595713</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>34.84984876650141</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>64.99476831707604</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>42.45896921485493</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274032</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>132.9222801333269</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>58.15409578032112</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>18.09999831057635</v>
+        <v>37.49025241182969</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>37.77589834984315</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>76.31783716350003</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2564,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>52.56058622104155</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>43.39690426066154</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274064</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498011</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633774</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>115.2673173526924</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>165.3278688570392</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113176</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701348</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>20.82402696096902</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>102.6372215278385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>17.93106827885175</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>130.4966170451643</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527406</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633774</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.4192454642718</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>67.28672596790712</v>
       </c>
       <c r="S40" t="n">
-        <v>82.3819065793612</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274184</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>82.9090343452439</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633774</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>94.27115951890939</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3977,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710058</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,10 +3992,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274257</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="45">
@@ -4135,13 +4135,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.73558949057697</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>166.740826380538</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>306.4627520174971</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="C2" t="n">
-        <v>306.4627520174971</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="D2" t="n">
-        <v>306.4627520174971</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4627520174971</v>
+        <v>256.5063620977151</v>
       </c>
       <c r="F2" t="n">
-        <v>40.56170762187426</v>
+        <v>249.5608613485116</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19784761800419</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800419</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="I2" t="n">
         <v>25.19784761800419</v>
@@ -4352,28 +4352,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>907.4554057415451</v>
+        <v>1042.185472726266</v>
       </c>
       <c r="S2" t="n">
-        <v>907.4554057415451</v>
+        <v>1042.185472726266</v>
       </c>
       <c r="T2" t="n">
-        <v>907.4554057415451</v>
+        <v>1042.185472726266</v>
       </c>
       <c r="U2" t="n">
-        <v>653.5783839042398</v>
+        <v>788.3084508889608</v>
       </c>
       <c r="V2" t="n">
-        <v>653.5783839042398</v>
+        <v>788.3084508889608</v>
       </c>
       <c r="W2" t="n">
-        <v>572.3637964131199</v>
+        <v>522.4074064933379</v>
       </c>
       <c r="X2" t="n">
-        <v>572.3637964131199</v>
+        <v>522.4074064933379</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.4627520174971</v>
+        <v>256.5063620977151</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>682.7677412016742</v>
+        <v>388.8942212880079</v>
       </c>
       <c r="C3" t="n">
-        <v>682.7677412016742</v>
+        <v>214.4411920068809</v>
       </c>
       <c r="D3" t="n">
-        <v>554.0903217229718</v>
+        <v>214.4411920068809</v>
       </c>
       <c r="E3" t="n">
-        <v>394.8528667175163</v>
+        <v>214.4411920068809</v>
       </c>
       <c r="F3" t="n">
-        <v>248.3183087444013</v>
+        <v>214.4411920068809</v>
       </c>
       <c r="G3" t="n">
         <v>109.6374838154158</v>
@@ -4407,25 +4407,25 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613333</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K3" t="n">
-        <v>154.3302328992135</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="L3" t="n">
-        <v>339.9440834239258</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="M3" t="n">
-        <v>339.9440834239258</v>
+        <v>285.559793968982</v>
       </c>
       <c r="N3" t="n">
-        <v>600.5536970360757</v>
+        <v>524.903632156528</v>
       </c>
       <c r="O3" t="n">
-        <v>860.9667611285678</v>
+        <v>785.3166962490201</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
@@ -4446,13 +4446,13 @@
         <v>850.9830782217423</v>
       </c>
       <c r="W3" t="n">
-        <v>850.9830782217423</v>
+        <v>596.7457214935407</v>
       </c>
       <c r="X3" t="n">
-        <v>850.9830782217423</v>
+        <v>388.8942212880079</v>
       </c>
       <c r="Y3" t="n">
-        <v>850.9830782217423</v>
+        <v>388.8942212880079</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G4" t="n">
         <v>21.05936271613333</v>
@@ -4516,22 +4516,22 @@
         <v>182.5089274706535</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>490.8677773018811</v>
+        <v>458.4508749078479</v>
       </c>
       <c r="C5" t="n">
-        <v>490.8677773018811</v>
+        <v>458.4508749078479</v>
       </c>
       <c r="D5" t="n">
-        <v>132.6020786951306</v>
+        <v>458.4508749078479</v>
       </c>
       <c r="E5" t="n">
-        <v>132.6020786951306</v>
+        <v>72.66262230960365</v>
       </c>
       <c r="F5" t="n">
-        <v>125.6565779459271</v>
+        <v>65.71712156040017</v>
       </c>
       <c r="G5" t="n">
-        <v>110.7303202058708</v>
+        <v>50.79086382034385</v>
       </c>
       <c r="H5" t="n">
-        <v>30.99158721153239</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="I5" t="n">
-        <v>30.99158721153239</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="J5" t="n">
-        <v>63.3372984893183</v>
+        <v>63.33729848931819</v>
       </c>
       <c r="K5" t="n">
         <v>232.5599391817369</v>
@@ -4574,43 +4574,43 @@
         <v>494.7722161923832</v>
       </c>
       <c r="M5" t="n">
-        <v>803.1404427365695</v>
+        <v>803.1404427365696</v>
       </c>
       <c r="N5" t="n">
         <v>1101.866392029483</v>
       </c>
       <c r="O5" t="n">
-        <v>1338.757197245514</v>
+        <v>1338.757197245515</v>
       </c>
       <c r="P5" t="n">
-        <v>1503.263635927383</v>
+        <v>1503.263635927384</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.579360576619</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="R5" t="n">
-        <v>1431.555163715789</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="S5" t="n">
-        <v>1431.555163715789</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="T5" t="n">
-        <v>1208.530504709574</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="U5" t="n">
-        <v>1208.530504709574</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="V5" t="n">
-        <v>877.4676173660029</v>
+        <v>1218.51647323305</v>
       </c>
       <c r="W5" t="n">
-        <v>877.4676173660029</v>
+        <v>1218.51647323305</v>
       </c>
       <c r="X5" t="n">
-        <v>877.4676173660029</v>
+        <v>845.0507149719697</v>
       </c>
       <c r="Y5" t="n">
-        <v>877.4676173660029</v>
+        <v>845.0507149719697</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507.1145855694056</v>
+        <v>798.5977262087102</v>
       </c>
       <c r="C6" t="n">
-        <v>507.1145855694056</v>
+        <v>624.1446969275833</v>
       </c>
       <c r="D6" t="n">
-        <v>507.1145855694056</v>
+        <v>475.2102872663319</v>
       </c>
       <c r="E6" t="n">
-        <v>507.1145855694056</v>
+        <v>315.9728322608764</v>
       </c>
       <c r="F6" t="n">
-        <v>360.5800275962906</v>
+        <v>169.4382742877614</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1333405200616</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5083831172222</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="I6" t="n">
-        <v>30.99158721153239</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="J6" t="n">
-        <v>30.99158721153239</v>
+        <v>56.56309157527274</v>
       </c>
       <c r="K6" t="n">
-        <v>201.3182042532644</v>
+        <v>226.8897086170048</v>
       </c>
       <c r="L6" t="n">
-        <v>491.7477567627767</v>
+        <v>226.8897086170048</v>
       </c>
       <c r="M6" t="n">
-        <v>615.2249245801615</v>
+        <v>610.4106003597183</v>
       </c>
       <c r="N6" t="n">
-        <v>998.7458163228748</v>
+        <v>893.8030210042861</v>
       </c>
       <c r="O6" t="n">
-        <v>1313.757655433464</v>
+        <v>1208.814860114876</v>
       </c>
       <c r="P6" t="n">
-        <v>1549.579360576619</v>
+        <v>1444.636565258031</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.579360576619</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="R6" t="n">
-        <v>1466.05133269704</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="S6" t="n">
-        <v>1312.427665477749</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="T6" t="n">
-        <v>1111.386347746699</v>
+        <v>1348.53804284557</v>
       </c>
       <c r="U6" t="n">
-        <v>883.1814227950065</v>
+        <v>1120.333117893877</v>
       </c>
       <c r="V6" t="n">
-        <v>883.1814227950065</v>
+        <v>1120.333117893877</v>
       </c>
       <c r="W6" t="n">
-        <v>883.1814227950065</v>
+        <v>866.0957611656759</v>
       </c>
       <c r="X6" t="n">
-        <v>675.3299225894737</v>
+        <v>798.5977262087102</v>
       </c>
       <c r="Y6" t="n">
-        <v>675.3299225894737</v>
+        <v>798.5977262087102</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>336.1816213179086</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="C7" t="n">
-        <v>336.1816213179086</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="D7" t="n">
-        <v>336.1816213179086</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="E7" t="n">
-        <v>336.1816213179086</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="F7" t="n">
-        <v>189.2916738199982</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="G7" t="n">
-        <v>30.99158721153239</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="H7" t="n">
-        <v>30.99158721153239</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="I7" t="n">
-        <v>30.99158721153239</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="J7" t="n">
-        <v>30.99158721153239</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="K7" t="n">
-        <v>36.06994770177042</v>
+        <v>36.06994770177047</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391502</v>
+        <v>98.09493531391513</v>
       </c>
       <c r="M7" t="n">
-        <v>173.8807113004514</v>
+        <v>173.8807113004515</v>
       </c>
       <c r="N7" t="n">
-        <v>253.2990873454192</v>
+        <v>253.2990873454194</v>
       </c>
       <c r="O7" t="n">
-        <v>310.6385163451041</v>
+        <v>310.6385163451042</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1816213179086</v>
+        <v>336.1816213179088</v>
       </c>
       <c r="Q7" t="n">
-        <v>336.1816213179086</v>
+        <v>336.1816213179088</v>
       </c>
       <c r="R7" t="n">
-        <v>336.1816213179086</v>
+        <v>336.1816213179088</v>
       </c>
       <c r="S7" t="n">
-        <v>336.1816213179086</v>
+        <v>336.1816213179088</v>
       </c>
       <c r="T7" t="n">
-        <v>336.1816213179086</v>
+        <v>212.6400520417721</v>
       </c>
       <c r="U7" t="n">
-        <v>336.1816213179086</v>
+        <v>212.6400520417721</v>
       </c>
       <c r="V7" t="n">
-        <v>336.1816213179086</v>
+        <v>212.6400520417721</v>
       </c>
       <c r="W7" t="n">
-        <v>336.1816213179086</v>
+        <v>212.6400520417721</v>
       </c>
       <c r="X7" t="n">
-        <v>336.1816213179086</v>
+        <v>212.6400520417721</v>
       </c>
       <c r="Y7" t="n">
-        <v>336.1816213179086</v>
+        <v>212.6400520417721</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1461.147548391485</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C8" t="n">
-        <v>1092.185031451073</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="D8" t="n">
-        <v>733.919332844323</v>
+        <v>857.5948851267888</v>
       </c>
       <c r="E8" t="n">
-        <v>733.919332844323</v>
+        <v>471.8066325285445</v>
       </c>
       <c r="F8" t="n">
-        <v>726.9738320951195</v>
+        <v>464.8611317793411</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>450.937727717932</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.752638628377</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1851.286880367297</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1461.147548391485</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.3053441250784</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C10" t="n">
-        <v>181.3053441250784</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D10" t="n">
-        <v>181.3053441250784</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>409.2948950230958</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X10" t="n">
-        <v>181.3053441250784</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y10" t="n">
-        <v>181.3053441250784</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="11">
@@ -5027,25 +5027,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5124,19 +5124,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>622.94692973335</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>454.0107468054431</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>303.8941073931073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>303.8941073931073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1463.714403116992</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1239.928987906498</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>950.8003491200559</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>696.115860914169</v>
       </c>
       <c r="W13" t="n">
-        <v>843.7395088768801</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X13" t="n">
-        <v>843.7395088768801</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y13" t="n">
-        <v>622.94692973335</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.095276920732</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>481.4617027208816</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C16" t="n">
-        <v>481.4617027208816</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D16" t="n">
-        <v>481.4617027208816</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E16" t="n">
-        <v>481.4617027208816</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188989</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>709.4512536188989</v>
+        <v>688.4298806633069</v>
       </c>
       <c r="X16" t="n">
-        <v>481.4617027208816</v>
+        <v>688.4298806633069</v>
       </c>
       <c r="Y16" t="n">
-        <v>481.4617027208816</v>
+        <v>688.4298806633069</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,22 +5516,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,10 +5540,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
@@ -5598,19 +5598,19 @@
         <v>2525.058920465858</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372322</v>
+        <v>3128.721707800139</v>
       </c>
       <c r="M18" t="n">
-        <v>3540.192194764783</v>
+        <v>3436.041841080101</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556162</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q18" t="n">
         <v>4860.854573014292</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C19" t="n">
         <v>265.3924131404652</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1253.576237692125</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>964.447598905683</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>964.447598905683</v>
+        <v>905.3942309355725</v>
       </c>
       <c r="W19" t="n">
-        <v>675.0304288687223</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="X19" t="n">
-        <v>447.040877970705</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.040877970705</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,22 +5753,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L21" t="n">
-        <v>816.7950850315615</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M21" t="n">
-        <v>1124.115218311523</v>
+        <v>3361.396285949676</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.977845975556</v>
+        <v>3691.258913613709</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>674.9958217162123</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>506.0596387883054</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>506.0596387883054</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0596387883054</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5941,19 +5941,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227918</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>856.644286546452</v>
+        <v>1126.186810079103</v>
       </c>
       <c r="W22" t="n">
-        <v>856.644286546452</v>
+        <v>836.769640042142</v>
       </c>
       <c r="X22" t="n">
-        <v>856.644286546452</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y22" t="n">
-        <v>856.644286546452</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155878</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6017,19 +6017,19 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>3540.192194764783</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>3870.054822428816</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3796.266898524761</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>3627.330715596854</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>4236.865415579181</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>4236.865415579181</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W25" t="n">
-        <v>4198.707942498531</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X25" t="n">
-        <v>4198.707942498531</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y25" t="n">
-        <v>3977.915363355001</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,31 +6242,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>2649.889045452864</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>3263.786115209752</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>3959.29649689213</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556163</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.69918977486</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.72167055707</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3759.690041781069</v>
+        <v>3957.46794468241</v>
       </c>
       <c r="C28" t="n">
-        <v>3759.690041781069</v>
+        <v>3957.46794468241</v>
       </c>
       <c r="D28" t="n">
-        <v>3609.573402368733</v>
+        <v>3904.376443449035</v>
       </c>
       <c r="E28" t="n">
-        <v>3609.573402368733</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="F28" t="n">
-        <v>3609.573402368733</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368733</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576119</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T28" t="n">
-        <v>4749.779469576119</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="U28" t="n">
-        <v>4460.650830789677</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="V28" t="n">
-        <v>4205.96634258379</v>
+        <v>4406.250074723957</v>
       </c>
       <c r="W28" t="n">
-        <v>4205.96634258379</v>
+        <v>4406.250074723957</v>
       </c>
       <c r="X28" t="n">
-        <v>4162.131085754839</v>
+        <v>4178.26052382594</v>
       </c>
       <c r="Y28" t="n">
-        <v>3941.338506611309</v>
+        <v>3957.46794468241</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="30">
@@ -6528,25 +6528,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
         <v>1302.911127126629</v>
@@ -6555,10 +6555,10 @@
         <v>1632.773754790662</v>
       </c>
       <c r="O30" t="n">
-        <v>1912.313820009359</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2432.614441745106</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4204.808076813061</v>
+        <v>493.3586382081058</v>
       </c>
       <c r="C31" t="n">
-        <v>4035.871893885154</v>
+        <v>493.3586382081058</v>
       </c>
       <c r="D31" t="n">
-        <v>3885.755254472819</v>
+        <v>493.3586382081058</v>
       </c>
       <c r="E31" t="n">
-        <v>3885.755254472819</v>
+        <v>493.3586382081058</v>
       </c>
       <c r="F31" t="n">
-        <v>3738.865306974908</v>
+        <v>493.3586382081058</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294729</v>
+        <v>325.1833165279265</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929846</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929846</v>
+        <v>964.135741824787</v>
       </c>
       <c r="U31" t="n">
-        <v>4371.805924143404</v>
+        <v>675.0071030383453</v>
       </c>
       <c r="V31" t="n">
-        <v>4371.805924143404</v>
+        <v>675.0071030383453</v>
       </c>
       <c r="W31" t="n">
-        <v>4371.805924143404</v>
+        <v>675.0071030383453</v>
       </c>
       <c r="X31" t="n">
-        <v>4204.808076813061</v>
+        <v>675.0071030383453</v>
       </c>
       <c r="Y31" t="n">
-        <v>4204.808076813061</v>
+        <v>675.0071030383453</v>
       </c>
     </row>
     <row r="32">
@@ -6695,37 +6695,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,22 +6774,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.9798268587604</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C34" t="n">
-        <v>527.0436439308535</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D34" t="n">
-        <v>376.9270045185178</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E34" t="n">
-        <v>376.9270045185178</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185178</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6862,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1395.242309418672</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1171.456894208177</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>1171.456894208177</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>916.7724060022905</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W34" t="n">
-        <v>916.7724060022905</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X34" t="n">
-        <v>916.7724060022905</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.9798268587604</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="35">
@@ -6914,13 +6914,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6932,13 +6932,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,19 +6947,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>3169.469405338474</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>3973.880983602625</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7099,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7120,25 +7120,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1167.181495781369</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.181495781369</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>877.7643257444088</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>649.7747748463914</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y37" t="n">
-        <v>428.9821957028613</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="38">
@@ -7151,40 +7151,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,7 +7196,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7214,7 +7214,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.058920465859</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>2771.824048372323</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>3276.771031433521</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N39" t="n">
-        <v>4081.182609697672</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>4360.722674916369</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698579</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3925.661817631306</v>
+        <v>376.9270045185175</v>
       </c>
       <c r="C40" t="n">
-        <v>3925.661817631306</v>
+        <v>376.9270045185175</v>
       </c>
       <c r="D40" t="n">
-        <v>3925.661817631306</v>
+        <v>376.9270045185175</v>
       </c>
       <c r="E40" t="n">
-        <v>3777.748724048913</v>
+        <v>376.9270045185175</v>
       </c>
       <c r="F40" t="n">
-        <v>3777.748724048913</v>
+        <v>376.9270045185175</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368733</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799369</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471253</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974673</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.48306298007</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585753</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557909</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1430.949880691336</v>
       </c>
       <c r="S40" t="n">
-        <v>4666.565422526259</v>
+        <v>1430.949880691336</v>
       </c>
       <c r="T40" t="n">
-        <v>4442.780007315765</v>
+        <v>1430.949880691336</v>
       </c>
       <c r="U40" t="n">
-        <v>4153.651368529323</v>
+        <v>1141.821241904895</v>
       </c>
       <c r="V40" t="n">
-        <v>4153.651368529323</v>
+        <v>887.1367536990078</v>
       </c>
       <c r="W40" t="n">
-        <v>4153.651368529323</v>
+        <v>597.7195836620474</v>
       </c>
       <c r="X40" t="n">
-        <v>3925.661817631306</v>
+        <v>597.7195836620474</v>
       </c>
       <c r="Y40" t="n">
-        <v>3925.661817631306</v>
+        <v>376.9270045185175</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805479</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822473</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7451,10 +7451,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>943.0172707642139</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1711.385417156675</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N42" t="n">
-        <v>2041.248044820708</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O42" t="n">
         <v>2320.788110039405</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3690.8149868377</v>
+        <v>510.7324460062445</v>
       </c>
       <c r="C43" t="n">
-        <v>3690.8149868377</v>
+        <v>510.7324460062445</v>
       </c>
       <c r="D43" t="n">
-        <v>3690.8149868377</v>
+        <v>360.6158065939089</v>
       </c>
       <c r="E43" t="n">
-        <v>3542.901893255307</v>
+        <v>360.6158065939089</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>360.6158065939089</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>192.4404849137297</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>192.4404849137297</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799369</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471198</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="T43" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="U43" t="n">
-        <v>4347.940519017357</v>
+        <v>1209.787631771462</v>
       </c>
       <c r="V43" t="n">
-        <v>4093.25603081147</v>
+        <v>1209.787631771462</v>
       </c>
       <c r="W43" t="n">
-        <v>4093.25603081147</v>
+        <v>920.3704617345013</v>
       </c>
       <c r="X43" t="n">
-        <v>4093.25603081147</v>
+        <v>692.3809108364841</v>
       </c>
       <c r="Y43" t="n">
-        <v>3872.46345166794</v>
+        <v>692.3809108364841</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155906</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805487</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382248</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7649,7 +7649,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7691,7 +7691,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>292.8275092861694</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>539.5926371926334</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>846.9127704725951</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1651.324348736746</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.0663679705859</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="C46" t="n">
-        <v>245.130185042679</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1413.324766021966</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1213.404755937518</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1213.404755937518</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>924.2761171510765</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>924.2761171510765</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W46" t="n">
-        <v>634.8589471141159</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X46" t="n">
-        <v>634.8589471141159</v>
+        <v>730.0789098462609</v>
       </c>
       <c r="Y46" t="n">
-        <v>414.0663679705859</v>
+        <v>509.2863307027308</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
-        <v>315.2952166467418</v>
+        <v>127.806478742992</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577181</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N3" t="n">
-        <v>381.7094952808119</v>
+        <v>360.2289140438382</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>100.2612329527924</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>77.47716095041639</v>
       </c>
       <c r="M6" t="n">
-        <v>195.5842123110933</v>
+        <v>458.2546405184959</v>
       </c>
       <c r="N6" t="n">
-        <v>445.5759018009047</v>
+        <v>344.4360320047981</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.0744641817182</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8772,22 +8772,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="O12" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>134.4977453535108</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>38.86002301949938</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,22 +9246,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>360.5026862907246</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165112</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9483,10 +9483,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>285.1031356539335</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>285.1031356539321</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>369.0893880493732</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>213.260391180662</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>392.1113620226428</v>
+        <v>180.0237016735875</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>104.8749102765749</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.8749102765746</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,19 +10428,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>253.737160350474</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10671,13 +10671,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>91.23759968302079</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,19 +10908,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>199.6230805871078</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>444.4889386861657</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>22.04402060665552</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>358.3520020925042</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,28 +11376,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>5.100663089359699</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>213.2603911806629</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>89.72463061697411</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>163.0709612171019</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>80.42627970585521</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>244.0640291217361</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>88.62528092506233</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>193.9835475435069</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>234.0376450132516</v>
+        <v>214.6473909119983</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>248.7470999867479</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>149.3918182255371</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>96.05488679717081</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>182.3127511283756</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>33.64651101484355</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X31" t="n">
-        <v>60.38178653199793</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25075,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>127.7914460572433</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>95.2835884557647</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25360,13 +25360,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>155.740735353413</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>42.67762643588554</v>
       </c>
       <c r="S40" t="n">
-        <v>115.538903404242</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F43" t="n">
-        <v>62.51201367768735</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>16.14808594536245</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037926</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26023,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>25.22876291321582</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>58.96882900849911</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>776764.5424193958</v>
+        <v>776764.542419396</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="F2" t="n">
+        <v>606095.0425934481</v>
+      </c>
+      <c r="G2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="I2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="J2" t="n">
         <v>606095.0425934483</v>
       </c>
-      <c r="F2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>606095.0425934482</v>
       </c>
-      <c r="H2" t="n">
-        <v>606095.0425934482</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934482</v>
-      </c>
-      <c r="K2" t="n">
-        <v>606095.0425934485</v>
-      </c>
       <c r="L2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="N2" t="n">
         <v>606095.0425934481</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934487</v>
       </c>
       <c r="O2" t="n">
         <v>606095.0425934483</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>138241.1818300987</v>
+        <v>138241.181830099</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133504</v>
+        <v>300621.8974133501</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124991</v>
+        <v>68875.69873124979</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.95942414826</v>
+        <v>31952.95942414848</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.89266179904</v>
+        <v>72609.89266179888</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>284041.3660845612</v>
+        <v>287707.9213319437</v>
       </c>
       <c r="C4" t="n">
-        <v>244257.3382671238</v>
+        <v>247985.996923612</v>
       </c>
       <c r="D4" t="n">
-        <v>152899.6228295281</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>11926.75926156282</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>11926.75926156282</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>11926.75926156282</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>11926.75926156282</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>11926.75926156282</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>11926.75926156277</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>11926.75926156273</v>
+        <v>15045.66962143923</v>
       </c>
       <c r="L4" t="n">
-        <v>11926.75926156282</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="M4" t="n">
-        <v>11926.75926156277</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>11926.75926156277</v>
+        <v>15045.66962143931</v>
       </c>
       <c r="O4" t="n">
-        <v>11926.75926156277</v>
+        <v>15045.66962143923</v>
       </c>
       <c r="P4" t="n">
-        <v>11926.75926156286</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26470,43 +26470,43 @@
         <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.17562267171</v>
+        <v>60032.17562267173</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>191737.1432784756</v>
+        <v>188070.5880310932</v>
       </c>
       <c r="C6" t="n">
-        <v>193776.6759249251</v>
+        <v>190048.0172684368</v>
       </c>
       <c r="D6" t="n">
-        <v>99926.77333853178</v>
+        <v>96051.43791683778</v>
       </c>
       <c r="E6" t="n">
-        <v>-22979.0790937273</v>
+        <v>-26097.9894536034</v>
       </c>
       <c r="F6" t="n">
-        <v>502180.9573831691</v>
+        <v>499062.0470232924</v>
       </c>
       <c r="G6" t="n">
-        <v>502180.9573831687</v>
+        <v>499062.047023293</v>
       </c>
       <c r="H6" t="n">
-        <v>502180.9573831687</v>
+        <v>499062.0470232927</v>
       </c>
       <c r="I6" t="n">
-        <v>502180.9573831691</v>
+        <v>499062.047023293</v>
       </c>
       <c r="J6" t="n">
-        <v>433305.258651919</v>
+        <v>430186.3482920428</v>
       </c>
       <c r="K6" t="n">
-        <v>470227.9979590209</v>
+        <v>467109.087599144</v>
       </c>
       <c r="L6" t="n">
-        <v>429571.0647213695</v>
+        <v>426452.1543614938</v>
       </c>
       <c r="M6" t="n">
-        <v>367379.9421493319</v>
+        <v>364261.0317894556</v>
       </c>
       <c r="N6" t="n">
-        <v>502180.9573831693</v>
+        <v>499062.0470232921</v>
       </c>
       <c r="O6" t="n">
-        <v>502180.957383169</v>
+        <v>499062.0470232925</v>
       </c>
       <c r="P6" t="n">
-        <v>502180.9573831692</v>
+        <v>499062.0470232929</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792246</v>
+        <v>130.7784101792248</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26756,19 +26756,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26790,7 +26790,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>387.3948401441548</v>
+        <v>387.3948401441551</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.350599632132798e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>107.7650274924353</v>
+        <v>107.7650274924354</v>
       </c>
       <c r="D3" t="n">
-        <v>246.9652540378621</v>
+        <v>246.9652540378618</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,10 +27012,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1528061924882</v>
+        <v>124.1528061924885</v>
       </c>
       <c r="D4" t="n">
-        <v>286.8924326104008</v>
+        <v>286.8924326104005</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516668</v>
+        <v>263.2420339516664</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924882</v>
+        <v>124.1528061924885</v>
       </c>
       <c r="L4" t="n">
         <v>286.8924326104008</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924882</v>
+        <v>124.1528061924885</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104008</v>
+        <v>286.8924326104005</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6340117900448</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>133.3827663148737</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>268.8385271012043</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,22 +27455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>20.05442028072338</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>33.53834557014525</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>8.11441070893386</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
@@ -27588,7 +27588,7 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>67.93320409404768</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
@@ -27619,10 +27619,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>255.1491975840436</v>
+        <v>314.4892594057152</v>
       </c>
       <c r="I5" t="n">
         <v>190.2072075264479</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>116.8439548922221</v>
       </c>
       <c r="S5" t="n">
         <v>197.0397157291234</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>220.7944124161532</v>
       </c>
       <c r="U5" t="n">
         <v>251.3035935196382</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.5187078288111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>79.71162794663286</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.69274760078363</v>
       </c>
       <c r="S6" t="n">
-        <v>14.37077294250415</v>
+        <v>166.4582034896018</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>138.9499305960815</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>11.03806369608225</v>
+        <v>167.7551494384634</v>
       </c>
       <c r="H7" t="n">
         <v>160.1304301278448</v>
@@ -27795,7 +27795,7 @@
         <v>148.3584260604898</v>
       </c>
       <c r="J7" t="n">
-        <v>76.68600477300343</v>
+        <v>76.68600477300342</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463146</v>
+        <v>66.41450331463145</v>
       </c>
       <c r="R7" t="n">
         <v>166.6896206108343</v>
@@ -27825,7 +27825,7 @@
         <v>219.9067257039628</v>
       </c>
       <c r="T7" t="n">
-        <v>226.9379524973924</v>
+        <v>104.631798914017</v>
       </c>
       <c r="U7" t="n">
         <v>286.3061659063093</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>71.40640101314472</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>82.8292905706266</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>20.34522396490235</v>
+        <v>17.40933785016585</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30697,13 +30697,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.693716791608187e-12</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30712,10 +30712,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,13 +30745,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30760,10 +30760,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5257423524792946</v>
+        <v>0.5257423524792953</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328578</v>
+        <v>5.384258867328584</v>
       </c>
       <c r="I5" t="n">
-        <v>20.26868204395803</v>
+        <v>20.26868204395805</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873957</v>
+        <v>44.62172498873963</v>
       </c>
       <c r="K5" t="n">
-        <v>66.87639876918813</v>
+        <v>66.87639876918821</v>
       </c>
       <c r="L5" t="n">
-        <v>82.96608628887635</v>
+        <v>82.96608628887647</v>
       </c>
       <c r="M5" t="n">
-        <v>92.31575684978002</v>
+        <v>92.31575684978013</v>
       </c>
       <c r="N5" t="n">
-        <v>93.80952230876181</v>
+        <v>93.80952230876194</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129582</v>
+        <v>88.58167179129593</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446323</v>
+        <v>75.60240746446333</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77425946629847</v>
+        <v>56.77425946629854</v>
       </c>
       <c r="R5" t="n">
-        <v>33.02516304892752</v>
+        <v>33.02516304892756</v>
       </c>
       <c r="S5" t="n">
-        <v>11.98035385712194</v>
+        <v>11.98035385712195</v>
       </c>
       <c r="T5" t="n">
-        <v>2.301437147978113</v>
+        <v>2.301437147978116</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04205938819834356</v>
+        <v>0.04205938819834362</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2812969577439926</v>
+        <v>0.281296957743993</v>
       </c>
       <c r="H6" t="n">
-        <v>2.716736407685403</v>
+        <v>2.716736407685406</v>
       </c>
       <c r="I6" t="n">
-        <v>9.685004904782204</v>
+        <v>9.685004904782216</v>
       </c>
       <c r="J6" t="n">
-        <v>26.57639371387432</v>
+        <v>26.57639371387436</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272182</v>
+        <v>45.42328988272189</v>
       </c>
       <c r="L6" t="n">
-        <v>61.0772188294577</v>
+        <v>61.07721882945778</v>
       </c>
       <c r="M6" t="n">
-        <v>71.27423354767741</v>
+        <v>71.27423354767751</v>
       </c>
       <c r="N6" t="n">
-        <v>73.16065042658342</v>
+        <v>73.16065042658352</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709811</v>
+        <v>66.92770204709819</v>
       </c>
       <c r="P6" t="n">
-        <v>53.71538134323663</v>
+        <v>53.7153813432367</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.90730990430334</v>
+        <v>35.90730990430339</v>
       </c>
       <c r="R6" t="n">
-        <v>17.46508655185948</v>
+        <v>17.4650865518595</v>
       </c>
       <c r="S6" t="n">
-        <v>5.224967614236</v>
+        <v>5.224967614236006</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082145</v>
+        <v>1.133824141082147</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01850637879894689</v>
+        <v>0.01850637879894692</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2358299199953231</v>
+        <v>0.2358299199953234</v>
       </c>
       <c r="H7" t="n">
-        <v>2.096742379594783</v>
+        <v>2.096742379594786</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768446</v>
+        <v>7.092048866768454</v>
       </c>
       <c r="J7" t="n">
-        <v>16.67317534366934</v>
+        <v>16.67317534366936</v>
       </c>
       <c r="K7" t="n">
-        <v>27.39914888672935</v>
+        <v>27.39914888672939</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821377</v>
+        <v>35.06147737821382</v>
       </c>
       <c r="M7" t="n">
-        <v>36.96741191344869</v>
+        <v>36.96741191344874</v>
       </c>
       <c r="N7" t="n">
-        <v>36.08840948437524</v>
+        <v>36.08840948437528</v>
       </c>
       <c r="O7" t="n">
-        <v>33.33348723715714</v>
+        <v>33.33348723715718</v>
       </c>
       <c r="P7" t="n">
-        <v>28.52255686925252</v>
+        <v>28.52255686925256</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.74753993706292</v>
+        <v>19.74753993706295</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633516</v>
+        <v>10.60377076633517</v>
       </c>
       <c r="S7" t="n">
-        <v>4.109872333009402</v>
+        <v>4.109872333009407</v>
       </c>
       <c r="T7" t="n">
-        <v>1.007636930889108</v>
+        <v>1.007636930889109</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156309</v>
+        <v>0.01286345018156311</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>187.4887379037498</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516666</v>
+        <v>241.7614527146929</v>
       </c>
       <c r="O3" t="n">
         <v>263.0434990833253</v>
@@ -34796,7 +34796,7 @@
         <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>76.41420694903813</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.67243563412705</v>
+        <v>32.67243563412711</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953723</v>
+        <v>170.9319602953724</v>
       </c>
       <c r="L5" t="n">
-        <v>264.8608858693395</v>
+        <v>264.8608858693397</v>
       </c>
       <c r="M5" t="n">
-        <v>311.4830571153398</v>
+        <v>311.4830571153399</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7433831241551</v>
+        <v>301.7433831241552</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2836416323544</v>
+        <v>239.2836416323545</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1681198806763</v>
+        <v>166.1681198806764</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.78356025175366</v>
+        <v>46.78356025175373</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>25.8298023876165</v>
       </c>
       <c r="K6" t="n">
-        <v>172.0470879209414</v>
+        <v>172.0470879209415</v>
       </c>
       <c r="L6" t="n">
-        <v>293.3631843530427</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>124.7244119367524</v>
+        <v>387.3948401441551</v>
       </c>
       <c r="N6" t="n">
-        <v>387.3948401441548</v>
+        <v>286.2549703480483</v>
       </c>
       <c r="O6" t="n">
-        <v>318.1937768793832</v>
+        <v>318.1937768793833</v>
       </c>
       <c r="P6" t="n">
         <v>238.2037425688436</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>106.002823554131</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.129657060846498</v>
+        <v>5.129657060846533</v>
       </c>
       <c r="L7" t="n">
-        <v>62.65150263852991</v>
+        <v>62.65150263852995</v>
       </c>
       <c r="M7" t="n">
-        <v>76.55128887528927</v>
+        <v>76.55128887528932</v>
       </c>
       <c r="N7" t="n">
-        <v>80.22058186360383</v>
+        <v>80.22058186360388</v>
       </c>
       <c r="O7" t="n">
-        <v>57.91861515119681</v>
+        <v>57.91861515119685</v>
       </c>
       <c r="P7" t="n">
-        <v>25.80111613414601</v>
+        <v>25.80111613414605</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35492,22 +35492,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887387</v>
       </c>
       <c r="O12" t="n">
-        <v>482.1033309642237</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35738,16 +35738,16 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>416.8614475946189</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>245.953437951024</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467489</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>534.3608406099578</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>595.5275127043983</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
@@ -36358,7 +36358,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>679.5137650998395</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>495.6240934217701</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>702.5357390731091</v>
+        <v>490.4480787240537</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36917,19 +36917,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>387.238612517683</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>192.8879430616487</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556565</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187487</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>536.1008625915821</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,19 +37391,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>401.661976733487</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37628,19 +37628,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>510.0474576375741</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>777.6835120841787</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556566</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789783</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187489</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>271.3017255626798</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>691.5465754905172</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315247</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556566</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187489</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38096,28 +38096,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>155.6761016772989</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>420.3538061121876</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
